--- a/rpm2pwm/Book1.xlsx
+++ b/rpm2pwm/Book1.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RyanJung\OneDrive - UBC\Documents\ELEC391\rpm2pwm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/kjung03_student_ubc_ca/Documents/Documents/ELEC391/ELEC391_SteadyCart/rpm2pwm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E0A1C6-B070-4C6C-AB77-F82FCFDC7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{E3E0A1C6-B070-4C6C-AB77-F82FCFDC7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BAB554A-E6BB-4DC0-AB8E-2FA157C921AE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50C772FE-0D89-42DE-8FFB-535531E959F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{50C772FE-0D89-42DE-8FFB-535531E959F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,19 +41,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>pwm</t>
+    <t>rpm</t>
   </si>
   <si>
-    <t>rpm</t>
+    <t>pwm2</t>
+  </si>
+  <si>
+    <t>calc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rpm</c:v>
+                  <c:v>pwm2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -215,13 +231,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.16443241469816272"/>
-                  <c:y val="-0.16985855934674832"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -258,31 +268,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>349.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>375.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155</c:v>
+                  <c:v>394.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>406.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205</c:v>
+                  <c:v>416.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>230</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>255</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,31 +304,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>349.2</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375.96</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>394.8</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>406.8</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>416.4</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>423</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>435</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,7 +336,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E0D-4153-9DA1-1C99F06AE7E7}"/>
+              <c16:uniqueId val="{00000000-D383-4DC3-9E6B-3499466FC8F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -338,11 +348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1081642944"/>
-        <c:axId val="1081643424"/>
+        <c:axId val="2076072496"/>
+        <c:axId val="406466096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1081642944"/>
+        <c:axId val="2076072496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,12 +409,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081643424"/>
+        <c:crossAx val="406466096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1081643424"/>
+        <c:axId val="406466096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081642944"/>
+        <c:crossAx val="2076072496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1077,23 +1087,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C642987-8B4E-39B5-7F7E-64633A2F6C44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2BF3FF-A913-DD95-CB07-0AA840D93190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,16 +1124,18 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB9E2BF-27F9-4F25-872E-9F359AEEFA9D}" name="Table1" displayName="Table1" ref="A1:B10" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:B10" xr:uid="{7EB9E2BF-27F9-4F25-872E-9F359AEEFA9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D804C0A6-25E6-43F0-B75F-1ECDC378C3C7}" uniqueName="pwm" name="pwm">
-      <xmlColumnPr mapId="1" xpath="/data/point/pwm" xmlDataType="integer"/>
-    </tableColumn>
     <tableColumn id="2" xr3:uid="{5AA13F96-228A-4826-8475-C87D70882F26}" uniqueName="rpm" name="rpm">
       <xmlColumnPr mapId="1" xpath="/data/point/rpm" xmlDataType="double"/>
     </tableColumn>
+    <tableColumn id="3" xr3:uid="{249E0702-CB91-4657-9AD1-17D582F772B8}" uniqueName="3" name="pwm2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1446,96 +1458,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>210</v>
+      </c>
+      <c r="B2">
         <v>55</v>
       </c>
-      <c r="B2">
-        <v>210</v>
+      <c r="E2">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>54.891323055099861</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
         <v>80</v>
       </c>
-      <c r="B3">
-        <v>300</v>
+      <c r="E3">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>81.17491815009987</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>349.2</v>
+      </c>
+      <c r="B4">
         <v>105</v>
       </c>
-      <c r="B4">
-        <v>349.2</v>
+      <c r="E4">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>102.09905918556353</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>375.96</v>
+      </c>
+      <c r="B5">
         <v>130</v>
       </c>
-      <c r="B5">
-        <v>375.96</v>
+      <c r="E5">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>129.44524519795016</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>394.8</v>
+      </c>
+      <c r="B6">
         <v>155</v>
       </c>
-      <c r="B6">
-        <v>394.8</v>
+      <c r="E6">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>158.83035330861969</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>406.8</v>
+      </c>
+      <c r="B7">
         <v>180</v>
       </c>
-      <c r="B7">
-        <v>406.8</v>
+      <c r="E7">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>182.79766322613898</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>416.4</v>
+      </c>
+      <c r="B8">
         <v>205</v>
       </c>
-      <c r="B8">
-        <v>416.4</v>
+      <c r="E8">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>205.26202546620254</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>423</v>
+      </c>
+      <c r="B9">
         <v>230</v>
       </c>
-      <c r="B9">
-        <v>423</v>
+      <c r="E9">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>222.52825231479949</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>435</v>
+      </c>
+      <c r="B10">
         <v>255</v>
       </c>
-      <c r="B10">
-        <v>435</v>
+      <c r="E10">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>257.98642971759966</v>
       </c>
     </row>
   </sheetData>

--- a/rpm2pwm/Book1.xlsx
+++ b/rpm2pwm/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/kjung03_student_ubc_ca/Documents/Documents/ELEC391/ELEC391_SteadyCart/rpm2pwm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{E3E0A1C6-B070-4C6C-AB77-F82FCFDC7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BAB554A-E6BB-4DC0-AB8E-2FA157C921AE}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{E3E0A1C6-B070-4C6C-AB77-F82FCFDC7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83429B8F-B061-4D2C-BB27-4D4F4BA39ADC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{50C772FE-0D89-42DE-8FFB-535531E959F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50C772FE-0D89-42DE-8FFB-535531E959F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>rpm</t>
   </si>
@@ -49,7 +49,10 @@
     <t>pwm2</t>
   </si>
   <si>
-    <t>calc</t>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>3rd</t>
   </si>
 </sst>
 </file>
@@ -226,11 +229,47 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 0.000675698364746x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>2.079153042372970</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.88449042449904</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -263,10 +302,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>210</c:v>
                 </c:pt>
@@ -293,16 +332,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>55</c:v>
                 </c:pt>
@@ -1124,13 +1166,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB9E2BF-27F9-4F25-872E-9F359AEEFA9D}" name="Table1" displayName="Table1" ref="A1:B10" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:B10" xr:uid="{7EB9E2BF-27F9-4F25-872E-9F359AEEFA9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB9E2BF-27F9-4F25-872E-9F359AEEFA9D}" name="Table1" displayName="Table1" ref="A1:B11" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:B11" xr:uid="{7EB9E2BF-27F9-4F25-872E-9F359AEEFA9D}"/>
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{5AA13F96-228A-4826-8475-C87D70882F26}" uniqueName="rpm" name="rpm">
       <xmlColumnPr mapId="1" xpath="/data/point/rpm" xmlDataType="double"/>
@@ -1458,19 +1496,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1478,10 +1516,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>210</v>
       </c>
@@ -1492,8 +1533,12 @@
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>54.891323055099861</v>
       </c>
+      <c r="F2">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>45.499253320580237</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>300</v>
       </c>
@@ -1504,8 +1549,12 @@
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>81.17491815009987</v>
       </c>
+      <c r="F3">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>95.514496437250941</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>349.2</v>
       </c>
@@ -1516,8 +1565,12 @@
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>102.09905918556353</v>
       </c>
+      <c r="F4">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>130.97719621919484</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>375.96</v>
       </c>
@@ -1528,8 +1581,12 @@
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>129.44524519795016</v>
       </c>
+      <c r="F5">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>152.71045206997704</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>394.8</v>
       </c>
@@ -1540,8 +1597,12 @@
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>158.83035330861969</v>
       </c>
+      <c r="F6">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>169.05212829562242</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>406.8</v>
       </c>
@@ -1552,8 +1613,12 @@
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>182.79766322613898</v>
       </c>
+      <c r="F7">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>179.91092865585088</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>416.4</v>
       </c>
@@ -1564,8 +1629,12 @@
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>205.26202546620254</v>
       </c>
+      <c r="F8">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>188.85083535674704</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>423</v>
       </c>
@@ -1576,8 +1645,12 @@
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>222.52825231479949</v>
       </c>
+      <c r="F9">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>195.12764215228705</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>435</v>
       </c>
@@ -1587,6 +1660,23 @@
       <c r="E10">
         <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
         <v>257.98642971759966</v>
+      </c>
+      <c r="F10">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>206.81317806449778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <f>0.000041559*POWER(Table1[[#This Row],[rpm]],3)-0.0347502552*POWER(Table1[[#This Row],[rpm]],2)+9.8233911975*Table1[[#This Row],[rpm]]-860.4124730999</f>
+        <v>-110.19525227990016</v>
+      </c>
+      <c r="F11">
+        <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
+        <v>14.213163519069322</v>
       </c>
     </row>
   </sheetData>

--- a/rpm2pwm/Book1.xlsx
+++ b/rpm2pwm/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/kjung03_student_ubc_ca/Documents/Documents/ELEC391/ELEC391_SteadyCart/rpm2pwm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{E3E0A1C6-B070-4C6C-AB77-F82FCFDC7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83429B8F-B061-4D2C-BB27-4D4F4BA39ADC}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{E3E0A1C6-B070-4C6C-AB77-F82FCFDC7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83C1572-6673-4BA1-92B7-E6B436A2C465}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50C772FE-0D89-42DE-8FFB-535531E959F5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>rpm</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>3rd</t>
+  </si>
+  <si>
+    <t>pow</t>
   </si>
 </sst>
 </file>
@@ -233,43 +236,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>y = 0.000675698364746x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="30000"/>
-                      <a:t>2.079153042372970</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>R² = 0.88449042449904</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1166,6 +1132,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB9E2BF-27F9-4F25-872E-9F359AEEFA9D}" name="Table1" displayName="Table1" ref="A1:B11" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:B11" xr:uid="{7EB9E2BF-27F9-4F25-872E-9F359AEEFA9D}"/>
@@ -1496,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1478,7 @@
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1519,10 +1489,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>210</v>
       </c>
@@ -1537,8 +1510,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>45.499253320580237</v>
       </c>
+      <c r="G2">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>47.221030584673869</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>300</v>
       </c>
@@ -1553,8 +1530,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>95.514496437250941</v>
       </c>
+      <c r="G3">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>87.590706820540589</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>349.2</v>
       </c>
@@ -1569,8 +1550,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>130.97719621919484</v>
       </c>
+      <c r="G4">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>122.78379027964148</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>375.96</v>
       </c>
@@ -1585,8 +1570,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>152.71045206997704</v>
       </c>
+      <c r="G5">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>147.54424683168094</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>394.8</v>
       </c>
@@ -1601,8 +1590,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>169.05212829562242</v>
       </c>
+      <c r="G6">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>167.91563560911743</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>406.8</v>
       </c>
@@ -1617,8 +1610,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>179.91092865585088</v>
       </c>
+      <c r="G7">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>182.33392477867912</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>416.4</v>
       </c>
@@ -1633,8 +1630,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>188.85083535674704</v>
       </c>
+      <c r="G8">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>194.75497229149673</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>423</v>
       </c>
@@ -1649,8 +1650,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>195.12764215228705</v>
       </c>
+      <c r="G9">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>203.78186985657427</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>435</v>
       </c>
@@ -1665,8 +1670,12 @@
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>206.81317806449778</v>
       </c>
+      <c r="G10">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>221.27985875110303</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>120</v>
       </c>
@@ -1677,6 +1686,10 @@
       <c r="F11">
         <f>0.000675698364746*POWER(Table1[[#This Row],[rpm]],2.07915394237297)</f>
         <v>14.213163519069322</v>
+      </c>
+      <c r="G11">
+        <f>11.1699046314716*EXP(0.006864839435544*Table1[[#This Row],[rpm]])</f>
+        <v>25.457332294934702</v>
       </c>
     </row>
   </sheetData>
